--- a/pred_ohlcv/54_21/2020-01-15 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 TRV ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-546924.1254779156</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-574908.8074779157</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-603209.1374779156</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-606323.0117779156</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-606273.0117779156</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-607271.0117779156</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-610401.2473779157</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-610359.2473779157</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-609959.4613779156</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-699483.2274287354</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-668401.3650287354</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-767057.9806287354</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-694395.6030873663</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-723293.7283873663</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-689204.8253873662</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-689163.8253873662</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-597031.1560873663</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-477838.1941873663</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-584614.1688873663</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-392901.0704873663</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-347167.1440644298</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-349104.9357644298</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-334784.5947644298</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-190944.6480625245</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-209529.7542625245</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-38738.26266252453</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-38948.26266252453</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-33967.32761458476</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>116615.2296854153</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>148617.5397854153</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>95457.63208541524</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>94054.62718541524</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-310850.1750145847</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-309632.1426661721</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-365982.5017661721</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-365982.5017661721</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2017430.710003288</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2017480.710003288</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2027067.436503288</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3147147.114003288</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3028050.075903288</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3028103.364903288</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3147398.707403288</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3147354.707403288</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3148749.707403288</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3732715.342603287</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-3732670.342603287</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3768780.026303288</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3789603.032803288</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3725983.304203288</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3686299.108839379</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3686211.108839379</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3682080.981439379</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3682125.854039379</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3691500.844139379</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 TRV ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-546924.1254779156</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-574908.8074779157</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-603209.1374779156</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-606323.0117779156</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-606273.0117779156</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-607271.0117779156</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-610401.2473779157</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-610359.2473779157</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-609959.4613779156</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-699483.2274287354</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-668401.3650287354</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-767057.9806287354</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-694395.6030873663</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-723293.7283873663</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-689204.8253873662</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-689163.8253873662</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-597031.1560873663</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-477838.1941873663</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-584614.1688873663</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-256551.5483873663</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-256551.5483873663</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-256612.1874749454</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-190944.6480625245</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-209529.7542625245</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-38738.26266252453</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-38948.26266252453</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-33967.32761458476</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>116615.2296854153</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>148617.5397854153</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>95457.63208541524</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>94054.62718541524</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-310850.1750145847</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2017430.710003288</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2017480.710003288</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2027067.436503288</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3147147.114003288</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3028050.075903288</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3028103.364903288</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3147398.707403288</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3147354.707403288</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3148749.707403288</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3582715.342603287</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3732715.342603287</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-3732670.342603287</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3751203.342603287</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3751203.342603287</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3732210.520203287</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3732166.080203287</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3768696.397003287</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3768651.397003287</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3768825.026303288</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3768780.026303288</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3789603.032803288</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3725982.346503288</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3725983.304203288</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3686299.108839379</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3686211.108839379</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3682080.981439379</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3682125.854039379</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3691500.844139379</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3683101.540539379</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3683057.540539379</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3596028.345938423</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
